--- a/Demo_Project/wwwroot/UploadFiles/Atif for testing.xlsx
+++ b/Demo_Project/wwwroot/UploadFiles/Atif for testing.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indus\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEBC818-2DE4-45D1-8023-B46F7C8249AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1605" windowWidth="29040" windowHeight="15720" xr2:uid="{CD1B4D40-5F5D-4DA3-A656-DDF9F2FC4AFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Sr No.</t>
   </si>
@@ -127,16 +126,19 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>atihmalik2@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +150,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,16 +180,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,39 +504,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213BC824-34AA-4E7F-8B02-197E94DC7097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -604,6 +617,9 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="3">
         <v>45139</v>
       </c>
@@ -650,7 +666,7 @@
         <v>65950</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -712,7 +728,7 @@
         <v>87166</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -775,6 +791,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Demo_Project/wwwroot/UploadFiles/Atif for testing.xlsx
+++ b/Demo_Project/wwwroot/UploadFiles/Atif for testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F030495-7D25-4BF9-B3FE-763E082BC777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09C9F1-AC65-4652-884E-4AF11F71BC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{CD1B4D40-5F5D-4DA3-A656-DDF9F2FC4AFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Sr No.</t>
   </si>
@@ -120,22 +120,16 @@
     <t>2022-NITB-187</t>
   </si>
   <si>
-    <t>Zakir Ali Shah</t>
-  </si>
-  <si>
     <t>11101-2193823-3</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>atihmalik2@gmail.com</t>
-  </si>
-  <si>
-    <t>bilawalshair98@gmail.com</t>
-  </si>
-  <si>
-    <t>iamfarwa25@gmail.com</t>
+    <t>Umair Shehzad</t>
+  </si>
+  <si>
+    <t>umair@solochoicez.com</t>
   </si>
 </sst>
 </file>
@@ -560,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -690,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3">
         <v>45139</v>
@@ -749,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3">
         <v>45139</v>
@@ -806,8 +800,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{CAFC6EC9-AB27-4D86-967E-E82ED32867CF}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{4632786F-412B-412A-8570-15AEDE20EE2F}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{C189BBC1-0DFC-4B79-8008-B991FBEDE061}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{D092A3FB-9EF6-45FC-AFD0-C6F0BF4B8BD4}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{F8439140-7EBF-47EA-ABFB-8A9F01987D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
